--- a/chapter_9/processed_data_2.xlsx
+++ b/chapter_9/processed_data_2.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City/County</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
